--- a/BDDExcel/ExcelBDDSampleA.xlsx
+++ b/BDDExcel/ExcelBDDSampleA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\BDDExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A646A43-CEBC-438A-AE6A-DB501AB55A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F5265-D41D-47C7-A337-E9BCE4CCFE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11A40F86-7AAC-408E-B14E-BFBC891AA33C}"/>
   </bookViews>
   <sheets>
-    <sheet name="CellValue" sheetId="2" r:id="rId1"/>
+    <sheet name="FirstSheet" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="CellValue" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t xml:space="preserve"> Header</t>
   </si>
@@ -119,6 +120,96 @@
   </si>
   <si>
     <t>CellValue</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Parameter Name\ Header</t>
+  </si>
+  <si>
+    <t>wrongheader</t>
+  </si>
+  <si>
+    <t>step1,blabla</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ParamName1</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>V1.5</t>
+  </si>
+  <si>
+    <t>V1.3</t>
+  </si>
+  <si>
+    <t>V1.4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>step2,blabla</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>ParamName2</t>
+  </si>
+  <si>
+    <t>V2.1</t>
+  </si>
+  <si>
+    <t>V2.5</t>
+  </si>
+  <si>
+    <t>V2.3</t>
+  </si>
+  <si>
+    <t>V2.4</t>
+  </si>
+  <si>
+    <t>step3,blabla</t>
+  </si>
+  <si>
+    <t>ParamName3</t>
+  </si>
+  <si>
+    <t>step4,blabla</t>
+  </si>
+  <si>
+    <t>ParamName4</t>
+  </si>
+  <si>
+    <t>2021/4/30</t>
+  </si>
+  <si>
+    <t>V4.5</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>V2.2</t>
   </si>
 </sst>
 </file>
@@ -128,10 +219,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +246,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +292,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,11 +327,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -236,17 +358,25 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,10 +687,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625D3EF-BD9D-4E10-8D85-0F2F0BFE3ABC}">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f>E15</f>
+        <v>V2.2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130B6F86-C85D-48CB-9183-41B3947269E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7E4C6-6C4C-408E-A704-0E6F035C1D75}">
   <dimension ref="A2:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -818,11 +1173,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -830,23 +1182,14 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130B6F86-C85D-48CB-9183-41B3947269E2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BDDExcel/ExcelBDDSampleA.xlsx
+++ b/BDDExcel/ExcelBDDSampleA.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\BDDExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F5265-D41D-47C7-A337-E9BCE4CCFE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D81F3-5A9D-4CCB-8AC4-8993A74B4C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11A40F86-7AAC-408E-B14E-BFBC891AA33C}"/>
+    <workbookView xWindow="-23580" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{11A40F86-7AAC-408E-B14E-BFBC891AA33C}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstSheet" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="MissingGrid" sheetId="1" r:id="rId2"/>
     <sheet name="CellValue" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t xml:space="preserve"> Header</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Parameter Name\ Header</t>
-  </si>
-  <si>
     <t>wrongheader</t>
   </si>
   <si>
@@ -210,6 +207,21 @@
   </si>
   <si>
     <t>V2.2</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Field</t>
   </si>
 </sst>
 </file>
@@ -363,9 +375,6 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -373,6 +382,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -690,7 +702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625D3EF-BD9D-4E10-8D85-0F2F0BFE3ABC}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -709,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -717,8 +731,8 @@
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>30</v>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -733,164 +747,164 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>E15</f>
         <v>V2.2</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="20" t="s">
+      <c r="B9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>53</v>
+      <c r="F10" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="22" t="s">
-        <v>54</v>
+      <c r="A13" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -901,12 +915,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130B6F86-C85D-48CB-9183-41B3947269E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f>E15</f>
+        <v>V2.2</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,62 +1150,62 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="17"/>
+      <c r="AD2" s="22"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2" t="s">

--- a/BDDExcel/ExcelBDDSampleA.xlsx
+++ b/BDDExcel/ExcelBDDSampleA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\BDDExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D81F3-5A9D-4CCB-8AC4-8993A74B4C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581055F-AFF4-44B5-A50D-44E86098EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23580" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{11A40F86-7AAC-408E-B14E-BFBC891AA33C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11A40F86-7AAC-408E-B14E-BFBC891AA33C}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstSheet" sheetId="3" r:id="rId1"/>
@@ -703,7 +703,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" t="s">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
